--- a/medicine/Psychotrope/El_Chapo_(série_télévisée)/El_Chapo_(série_télévisée).xlsx
+++ b/medicine/Psychotrope/El_Chapo_(série_télévisée)/El_Chapo_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>El_Chapo_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El Chapo est une série télévisée américaine en 34 épisodes de 45 minutes, diffusée entre le 23 avril 2017[1] et le 25 juillet 2018, localement sur Univision, et internationalement sur Netflix.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El Chapo est une série télévisée américaine en 34 épisodes de 45 minutes, diffusée entre le 23 avril 2017 et le 25 juillet 2018, localement sur Univision, et internationalement sur Netflix.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>El_Chapo_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle met en scène l'histoire vraie de l'avènement, de la capture et de l'évasion du célèbre baron de la drogue mexicain Joaquín Guzmán dit « El Chapo »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle met en scène l'histoire vraie de l'avènement, de la capture et de l'évasion du célèbre baron de la drogue mexicain Joaquín Guzmán dit « El Chapo ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>El_Chapo_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Marco de la O (VFB : Jean-Michel Vovk) : Joaquín Guzmán dit « El Chapo »
-Humberto Busto (VFB : Sébastien Hébrant) : Conrado Higuera Sol « Don Sol » (inspiré de Genaro García Luna)[3]
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marco de la O (VFB : Jean-Michel Vovk) : Joaquín Guzmán dit « El Chapo »
+Humberto Busto (VFB : Sébastien Hébrant) : Conrado Higuera Sol « Don Sol » (inspiré de Genaro García Luna)
 Alejandro Aguilar (es) : Toño, l'homme de main d'El Chapo
 Rodrigo Abed (es) : Amado Carrillo Fuentes (alias « El Señor de los Cielos »), chef du cartel de Juarez
 Luis Fernando Peña : Armando « Rayo » López
@@ -558,9 +577,43 @@
 Diego Vásquez (es) (VFB : Simon Duprez) : Ismael Zambada García (alias « El Mayo » et/ou « Don Ismael »)
 Teté Espinoza (es) : Chío
 Luis Rábago (es) (VFB : Robert Guilmard) : General Blanco (personnage fictif)
-Dolores Heredia : Gabriela Saavedra
-Acteurs récurrents
-Ricardo Lorenzana : Miguel Ángel Félix Gallardo alias El Padrino[4]
+Dolores Heredia : Gabriela Saavedra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>El_Chapo_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ricardo Lorenzana : Miguel Ángel Félix Gallardo alias El Padrino
 Mauricio Mejía : Pablo Escobar
 Biassini Segura : « El Lobito » Avendaño
 Valentina Acosta (es) : Alejandra (Alejandrina María Salazar Hernández) première femme d'El Chapo
@@ -579,41 +632,77 @@
 Mario Zaragoza (es) : Andres Labrador Candidat à l'élection présidentielle de 2006 (inspiré de Andrés Obrador)
 Homero Ferruzca : Felipe Alarcon Président en 2006 (inspiré de Felipe Calderón)
 Moisés Arizmendi (es) : Esteban Prieto Président en 2012 (inspiré de Enrique Peña Nieto. Son oncle Roberto Colina est inspiré de Arturo Montiel Rojas)
-Santiago Miniño : Rodrigo Vinas, coordinateur général des opérations de la marine mexicaine[5]
-Arturo Álvarez : Félix Olivares, gouverneur d'Hidalgo[6] (inspiré de Miguel Ángel Osorio Chong)
+Santiago Miniño : Rodrigo Vinas, coordinateur général des opérations de la marine mexicaine
+Arturo Álvarez : Félix Olivares, gouverneur d'Hidalgo (inspiré de Miguel Ángel Osorio Chong)
 Fermín Martínez : Jorge del Toro, gouverneur de Sinaloa (inspiré de Mario López Valdez)
-Vera Mercado : Juana Vázquez candidate à l'élection présidentielle de 2012 (inspirée de Josefina Vázquez Mota)
-Autres
-Le PTI (Partido Trabajador Institucional) est inspiré par le PRI (Parti Révolutionnaire Institutionnel)
+Vera Mercado : Juana Vázquez candidate à l'élection présidentielle de 2012 (inspirée de Josefina Vázquez Mota)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>El_Chapo_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le PTI (Partido Trabajador Institucional) est inspiré par le PRI (Parti Révolutionnaire Institutionnel)
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>El_Chapo_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/El_Chapo_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
